--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/Procesos/Matriz-de-comunicacion.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/Procesos/Matriz-de-comunicacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t xml:space="preserve">Matriz de comunicación </t>
   </si>
@@ -198,13 +198,16 @@
   </si>
   <si>
     <t xml:space="preserve">Rol </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA y Asociados </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +266,13 @@
     <font>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -410,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,10 +453,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -460,18 +491,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,13 +507,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,41 +535,42 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1609724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="0 Imagen"/>
+        <xdr:cNvPr id="3" name="2 Imagen" descr="F:\logo.jpg"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="20675" t="22801" r="17662" b="27828"/>
+        <a:srcRect l="17828" t="21111" r="16324" b="30000"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1523999" y="381000"/>
-          <a:ext cx="4619625" cy="1733550"/>
+          <a:off x="1876425" y="657223"/>
+          <a:ext cx="4838700" cy="1524001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -858,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H50"/>
+  <dimension ref="C2:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:H44"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,440 +887,395 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="4" spans="3:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+    <row r="15" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="20" t="s">
-        <v>52</v>
+    <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="16" t="s">
+      <c r="C19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="16" t="s">
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="16" t="s">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="16" t="s">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="17"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="10" t="s">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="42" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F43" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="41" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C41" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-    </row>
-    <row r="43" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C43" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C44" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-    </row>
-    <row r="47" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="25"/>
-    </row>
-    <row r="48" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-    </row>
-    <row r="50" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
+  <mergeCells count="48">
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C8:H10"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C21:H21"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F34:H34"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C2:H10"/>
-    <mergeCell ref="C13:H15"/>
-    <mergeCell ref="C16:H17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="F43:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1341,10 +1311,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1476,10 +1446,10 @@
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="6"/>
@@ -1501,10 +1471,10 @@
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="6"/>
@@ -1526,10 +1496,10 @@
       <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="6"/>
@@ -1551,10 +1521,10 @@
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="6"/>
@@ -1576,10 +1546,10 @@
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="6"/>
@@ -1652,13 +1622,13 @@
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -1674,12 +1644,12 @@
       <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
@@ -1694,12 +1664,12 @@
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
@@ -1711,21 +1681,21 @@
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="F17" s="33"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>

--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/Procesos/Matriz-de-comunicacion.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/Procesos/Matriz-de-comunicacion.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Control de Cambios" sheetId="4" r:id="rId1"/>
-    <sheet name="Matriz de Comunicación" sheetId="1" r:id="rId2"/>
+    <sheet name="Identificador" sheetId="4" r:id="rId1"/>
+    <sheet name="Control de Cambios" sheetId="5" r:id="rId2"/>
+    <sheet name="Matriz de Comunicación" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t xml:space="preserve">Matriz de comunicación </t>
   </si>
@@ -29,12 +30,27 @@
     <t>Rol en el proyecto</t>
   </si>
   <si>
+    <t>Lider del proyecto</t>
+  </si>
+  <si>
     <t>Cliente</t>
   </si>
   <si>
     <t>Consejo directivo</t>
   </si>
   <si>
+    <t>Analista</t>
+  </si>
+  <si>
+    <t>Diseñador</t>
+  </si>
+  <si>
+    <t>Programador</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
     <t>SRS</t>
   </si>
   <si>
@@ -116,6 +132,15 @@
     <t>Reporte semanal</t>
   </si>
   <si>
+    <t>Ana Laura Acevedo</t>
+  </si>
+  <si>
+    <t>Alan Javier Córdoba</t>
+  </si>
+  <si>
+    <t>José Alejandro Téllez</t>
+  </si>
+  <si>
     <t>AAA ASOCIADOS</t>
   </si>
   <si>
@@ -191,23 +216,17 @@
     <t>CRUD CINCO (ciclos)</t>
   </si>
   <si>
-    <t>█</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rol </t>
-  </si>
-  <si>
     <t xml:space="preserve">AAA y Asociados </t>
+  </si>
+  <si>
+    <t>Control de cambios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,21 +276,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -420,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -442,6 +455,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -453,14 +469,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,6 +496,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -491,6 +516,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,10 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -537,14 +579,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1609724</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1752599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -564,8 +606,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1876425" y="657223"/>
-          <a:ext cx="4838700" cy="1524001"/>
+          <a:off x="1876425" y="276224"/>
+          <a:ext cx="4838700" cy="1666875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -581,6 +623,63 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="1 Recortar rectángulo de esquina diagonal"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133851" y="3200401"/>
+          <a:ext cx="104774" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -873,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H45"/>
+  <dimension ref="C2:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F30" sqref="C30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,408 +985,432 @@
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="4" spans="3:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+    <row r="2" spans="3:8" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="C8" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="27" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="11" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="3:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="C28" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="C29" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-    </row>
-    <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-    </row>
-    <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-    </row>
-    <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-    </row>
-    <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="42" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-    </row>
-    <row r="43" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C43" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
+      <c r="H42" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="35">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C5:H7"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C8:H10"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C28:H28"/>
     <mergeCell ref="F29:H29"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,60 +1434,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1375,57 +1498,57 @@
         <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1446,11 +1569,11 @@
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>60</v>
+      <c r="A4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1471,11 +1594,11 @@
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>60</v>
+      <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1496,11 +1619,11 @@
       <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>60</v>
+      <c r="A6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1521,11 +1644,11 @@
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>60</v>
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1546,11 +1669,11 @@
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>60</v>
+      <c r="A8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1617,92 +1740,87 @@
     <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="G14" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="17" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="F17" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
@@ -1720,5 +1838,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>